--- a/assets/disciplinas/LOM3238.xlsx
+++ b/assets/disciplinas/LOM3238.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>519033 - Carlos Yujiro Shigue</t>
+  </si>
+  <si>
+    <t>5817692 - Katia Cristiane Gandolpho Candioto</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,97 +630,97 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -727,6 +730,14 @@
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3238.xlsx
+++ b/assets/disciplinas/LOM3238.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introduzir aos estudantes os princípios e a metodologia da pesquisa científica.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,58 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>5817692 - Katia Cristiane Gandolpho Candioto</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Iniciação a um projeto de pesquisa sob orientação de um professor.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Organização e o formalismo do desenvolvimento do trabalho científico. Técnicas de redação científica, uso de ferramentas de busca, referências bibliográficas e estruturas formais de divulgação científica. Desenvolvimento de um tema de pesquisa individual, com o formato de um trabalho de Iniciação Científica, sob a orientação de um professor ou pesquisador autorizado pela Comissão de Curso. Entrega e apresentação de monografia no final da disciplina.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas expositivas, reuniões com professor orientador, desenvolvimento de projeto de pesquisa e elaboração de monografia.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Nota de avaliação da monografia.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A critério da Comissão de Curso poderá ser oferecida recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ASTI VERA, A. Metodologia da pesquisa científica. Porto Alegre: Ed. Globo, 1973.
-BARRAS, R. Os cientistas precisam escrever: guia de redação para cientistas, engenheiros e estudantes. São Paulo: TAQ/EDUSP, 1979.
-CERVO, A. L.; BERVIAN, P. A. Metodologia científica. São Paulo: Mc-Graw-Hill do Brasil, 1973.
-ANDRADE, M. M. Introdução à Metodologia do Trabalho Científico São Paulo: Atlas, 2005.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -497,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,56 +607,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -686,7 +677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -697,47 +688,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3238.xlsx
+++ b/assets/disciplinas/LOM3238.xlsx
@@ -28,7 +28,7 @@
     <t>Nome:</t>
   </si>
   <si>
-    <t xml:space="preserve"> Projeto Integrado I</t>
+    <t xml:space="preserve"> Projeto Integrado</t>
   </si>
   <si>
     <t>Name:</t>

--- a/assets/disciplinas/LOM3238.xlsx
+++ b/assets/disciplinas/LOM3238.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -34,31 +34,28 @@
     <t>Name:</t>
   </si>
   <si>
-    <t>Integrated Project I</t>
+    <t>Integrated Project</t>
   </si>
   <si>
     <t>Créditos-aula:</t>
   </si>
   <si>
-    <t>1</t>
+    <t>4</t>
   </si>
   <si>
     <t>Créditos-trabalho</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Carga horária:</t>
   </si>
   <si>
-    <t>135 h</t>
+    <t>180 h</t>
   </si>
   <si>
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +73,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Introduce students to the principles and methodology of scientific research.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -85,12 +85,18 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Initiation into a research project under the guidance of a professor.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>Organization and formalism of the development of scientific work. Scientific writing techniques, use of search tools, bibliographic references and formal structures of scientific dissemination. Development of an individual research topic, with the format of a Scientific Initiation work, under the guidance of a professor or researcher authorized by the Course Committee. Delivery and presentation of research project at the end of the course.</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
@@ -103,19 +109,19 @@
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, reuniões com professor orientador, desenvolvimento de projeto de pesquisa e elaboração de monografia.</t>
+    <t>Aulas expositivas, reuniões com professor orientador, desenvolvimento de projeto de pesquisa e elaboração de projeto de pesquisa.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Nota de avaliação da monografia.</t>
+    <t>Nota de avaliação do projeto e demais documentos.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A critério da Comissão de Curso poderá ser oferecida recuperação.</t>
+    <t>Devido às características do curso, não será oferecida recuperação.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -547,58 +553,64 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -612,101 +624,113 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3238.xlsx
+++ b/assets/disciplinas/LOM3238.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,21 +67,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Introduzir aos estudantes os princípios e a metodologia da pesquisa científica.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Introduce students to the principles and methodology of scientific research.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Introduce students to the principles and methodology of scientific research.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5817692 - Katia Cristiane Gandolpho Candioto</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Iniciação a um projeto de pesquisa sob orientação de um professor.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Organização e o formalismo do desenvolvimento do trabalho científico. Técnicas de redação científica, uso de ferramentas de busca, referências bibliográficas e estruturas formais de divulgação científica. Desenvolvimento de um tema de pesquisa individual, com o formato de um trabalho de Iniciação Científica, sob a orientação de um professor ou pesquisador autorizado pela Comissão de Curso. Entrega e apresentação de monografia no final da disciplina.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -103,25 +115,28 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>5817692 - Katia Cristiane Gandolpho Candioto</t>
+    <t>Aulas expositivas, reuniões com professor orientador, desenvolvimento de projeto de pesquisa e elaboração de projeto de pesquisa.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, reuniões com professor orientador, desenvolvimento de projeto de pesquisa e elaboração de projeto de pesquisa.</t>
+    <t>Nota de avaliação do projeto e demais documentos.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Nota de avaliação do projeto e demais documentos.</t>
+    <t>Devido às características do curso, não será oferecida recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Devido às características do curso, não será oferecida recuperação.</t>
+    <t>ASTI VERA, A. Metodologia da pesquisa científica. Porto Alegre: Ed. Globo, 1973.
+BARRAS, R. Os cientistas precisam escrever: guia de redação para cientistas, engenheiros e estudantes. São Paulo: TAQ/EDUSP, 1979.
+CERVO, A. L.; BERVIAN, P. A. Metodologia científica. São Paulo: Mc-Graw-Hill do Brasil, 1973.
+ANDRADE, M. M. Introdução à Metodologia do Trabalho Científico São Paulo: Atlas, 2005.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -488,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -619,40 +634,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -663,30 +672,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -701,7 +710,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -712,25 +721,47 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
